--- a/tests/testthat/testdata_Proportion.xlsx
+++ b/tests/testthat/testdata_Proportion.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEstatmethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E8F5A7-C074-496D-AFC7-3696017BFC8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Prop" sheetId="3" r:id="rId1"/>
+    <sheet name="testdata_Prop_g" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="26">
   <si>
     <t>Numerator</t>
   </si>
@@ -68,9 +76,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>proportion</t>
-  </si>
-  <si>
     <t>percentage</t>
   </si>
   <si>
@@ -93,12 +98,24 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Area9</t>
+  </si>
+  <si>
+    <t>Area10</t>
+  </si>
+  <si>
+    <t>Area11</t>
+  </si>
+  <si>
+    <t>proportion of 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,13 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +461,8 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="5" customWidth="1"/>
-    <col min="8" max="10" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -460,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -478,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -504,13 +523,13 @@
         <v>5.4486196178705294E-2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -539,13 +558,13 @@
         <v>0.11175046923191911</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -574,13 +593,13 @@
         <v>0.28882916559315885</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -609,13 +628,13 @@
         <v>0.73635751756902468</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -644,13 +663,13 @@
         <v>0.80536400736149094</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -679,13 +698,13 @@
         <v>1.0287644578977231E-3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -714,13 +733,13 @@
         <v>7.8339566813836331E-2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -749,13 +768,13 @@
         <v>0.30440389662818057</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -784,13 +803,13 @@
         <v>5.4486196178705297</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2">
         <v>100</v>
@@ -819,13 +838,13 @@
         <v>11.175046923191911</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2">
         <v>100</v>
@@ -854,13 +873,13 @@
         <v>28.882916559315884</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2">
         <v>100</v>
@@ -889,13 +908,13 @@
         <v>73.635751756902465</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2">
         <v>100</v>
@@ -924,13 +943,13 @@
         <v>80.536400736149091</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="2">
         <v>100</v>
@@ -959,13 +978,13 @@
         <v>0.10287644578977231</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="2">
         <v>100</v>
@@ -994,13 +1013,13 @@
         <v>7.8339566813836328</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2">
         <v>100</v>
@@ -1029,13 +1048,13 @@
         <v>30.440389662818056</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="2">
         <v>100</v>
@@ -1064,13 +1083,13 @@
         <v>0.10455445283705821</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -1099,13 +1118,13 @@
         <v>0.16458852282596442</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -1134,13 +1153,13 @@
         <v>0.3471109417008601</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -1169,13 +1188,13 @@
         <v>0.77835406140896968</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -1204,13 +1223,13 @@
         <v>0.80930614125896261</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -1239,13 +1258,13 @@
         <v>1.0291812992698397E-3</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -1274,13 +1293,13 @@
         <v>8.4184141852701344E-2</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -1309,13 +1328,13 @@
         <v>0.31344754492799848</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -1344,13 +1363,13 @@
         <v>10.455445283705821</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" s="2">
         <v>100</v>
@@ -1379,13 +1398,13 @@
         <v>16.458852282596443</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" s="2">
         <v>100</v>
@@ -1414,13 +1433,13 @@
         <v>34.711094170086007</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2">
         <v>100</v>
@@ -1449,13 +1468,13 @@
         <v>77.835406140896964</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" s="2">
         <v>100</v>
@@ -1484,13 +1503,13 @@
         <v>80.930614125896255</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" s="2">
         <v>100</v>
@@ -1519,13 +1538,13 @@
         <v>0.10291812992698397</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" s="2">
         <v>100</v>
@@ -1554,13 +1573,13 @@
         <v>8.4184141852701337</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" s="2">
         <v>100</v>
@@ -1589,20 +1608,457 @@
         <v>31.344754492799847</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" s="2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2">
+        <v>100</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BDD4BF-DA3C-4E63-8E1A-0835ACE9078C}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A2,testdata_Prop!B$2:B$33)</f>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A2,testdata_Prop!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>3.8954837949909914E-3</v>
+      </c>
+      <c r="F2">
+        <v>2.5426564652619579E-2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A3,testdata_Prop!B$2:B$33)</f>
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A3,testdata_Prop!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>3.2597429837147258E-2</v>
+      </c>
+      <c r="F3">
+        <v>7.5963635063719587E-2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A4,testdata_Prop!B$2:B$33)</f>
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A4,testdata_Prop!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.16373705973387687</v>
+      </c>
+      <c r="F4">
+        <v>0.24197031686670104</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A5,testdata_Prop!B$2:B$33)</f>
+        <v>260</v>
+      </c>
+      <c r="C5">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A5,testdata_Prop!C$2:C$33)</f>
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>0.65</v>
+      </c>
+      <c r="E5">
+        <v>0.60203196070747378</v>
+      </c>
+      <c r="F5">
+        <v>0.69511435099223728</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A6,testdata_Prop!B$2:B$33)</f>
+        <v>39424</v>
+      </c>
+      <c r="C6">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A6,testdata_Prop!C$2:C$33)</f>
+        <v>49380</v>
+      </c>
+      <c r="D6">
+        <v>0.79837991089509919</v>
+      </c>
+      <c r="E6">
+        <v>0.79481805800067218</v>
+      </c>
+      <c r="F6">
+        <v>0.80189534317473543</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A7,testdata_Prop!B$2:B$33)</f>
+        <v>31105824</v>
+      </c>
+      <c r="C7">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A7,testdata_Prop!C$2:C$33)</f>
+        <v>30257346708</v>
+      </c>
+      <c r="D7">
+        <v>1.0280420256339154E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.0276809995663644E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.0284031783999669E-3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A8,testdata_Prop!B$2:B$33)</f>
+        <v>888</v>
+      </c>
+      <c r="C8">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A8,testdata_Prop!C$2:C$33)</f>
+        <v>12860</v>
+      </c>
+      <c r="D8">
+        <v>6.9051321928460335E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.4796737148613115E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.3563290415335325E-2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A9,testdata_Prop!B$2:B$33)</f>
+        <v>3996</v>
+      </c>
+      <c r="C9">
+        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A9,testdata_Prop!C$2:C$33)</f>
+        <v>13824</v>
+      </c>
+      <c r="D9">
+        <v>0.2890625</v>
+      </c>
+      <c r="E9">
+        <v>0.28156503717401421</v>
+      </c>
+      <c r="F9">
+        <v>0.29667716227788915</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/testthat/testdata_Proportion.xlsx
+++ b/tests/testthat/testdata_Proportion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E8F5A7-C074-496D-AFC7-3696017BFC8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2C942-C723-44C0-B302-75715A26BDF5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Prop" sheetId="3" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Area9</t>
-  </si>
-  <si>
     <t>Area10</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>proportion of 1</t>
+  </si>
+  <si>
+    <t>Area09</t>
   </si>
 </sst>
 </file>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -631,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
@@ -666,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -771,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -1086,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
@@ -1121,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
@@ -1156,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
@@ -1191,7 +1191,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>15</v>
@@ -1226,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>15</v>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
@@ -1296,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>15</v>
@@ -1331,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>15</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2">
         <v>100</v>
@@ -1631,7 +1631,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>15</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -1651,7 +1651,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BDD4BF-DA3C-4E63-8E1A-0835ACE9078C}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -1788,7 +1788,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -1822,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -1856,7 +1856,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
@@ -1890,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -1924,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -1958,7 +1958,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -1992,7 +1992,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -2012,7 +2012,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>15</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2032,7 +2032,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>

--- a/tests/testthat/testdata_Proportion.xlsx
+++ b/tests/testthat/testdata_Proportion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2C942-C723-44C0-B302-75715A26BDF5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A111AC0-10D6-4741-BE20-2F11F0F04E9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,23 +16,17 @@
     <sheet name="testdata_Prop" sheetId="3" r:id="rId1"/>
     <sheet name="testdata_Prop_g" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
   <si>
     <t>Numerator</t>
   </si>
@@ -94,9 +88,6 @@
     <t>95%</t>
   </si>
   <si>
-    <t>99.8%</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -110,6 +101,18 @@
   </si>
   <si>
     <t>Area09</t>
+  </si>
+  <si>
+    <t>lower95_0cl</t>
+  </si>
+  <si>
+    <t>upper95_0cl</t>
+  </si>
+  <si>
+    <t>lower99_8cl</t>
+  </si>
+  <si>
+    <t>upper99_8cl</t>
   </si>
 </sst>
 </file>
@@ -159,13 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -447,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,16 +461,15 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,28 +480,31 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -511,31 +515,36 @@
         <v>100</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D33" si="0">IF(B2&lt;0,"#NUM!",B2/C2*J2)</f>
+        <f t="shared" ref="D2:D17" si="0">IF(B2&lt;0,"#NUM!",B2/C2*K2)</f>
         <v>0.01</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E17" si="1">(2*$B2+NORMSINV((100+95)/200)^2-NORMSINV((100+95)/200)*SQRT(NORMSINV((100+95)/200)^2+4*$B2*(1-$D2/$J2)))/2/($C2+NORMSINV((100+95)/200)^2)*$J2</f>
+        <f t="shared" ref="E2:E17" si="1">(2*$B2+NORMSINV((100+95)/200)^2-NORMSINV((100+95)/200)*SQRT(NORMSINV((100+95)/200)^2+4*$B2*(1-$D2/$K2)))/2/($C2+NORMSINV((100+95)/200)^2)*$K2</f>
         <v>1.7674320641406511E-3</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F17" si="2">(2*$B2+NORMSINV((100+95)/200)^2+NORMSINV((100+95)/200)*SQRT(NORMSINV((100+95)/200)^2+4*$B2*(1-$D2/$J2)))/2/($C2+NORMSINV((100+95)/200)^2)*$J2</f>
+        <f t="shared" ref="F2:F17" si="2">(2*$B2+NORMSINV((100+95)/200)^2+NORMSINV((100+95)/200)*SQRT(NORMSINV((100+95)/200)^2+4*$B2*(1-$D2/$K2)))/2/($C2+NORMSINV((100+95)/200)^2)*$K2</f>
         <v>5.4486196178705294E-2</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G17" si="3">(2*$B2+NORMSINV((100+99.8)/200)^2-NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B2*(1-$D2/$K2)))/2/($C2+NORMSINV((100+99.8)/200)^2)*$K2</f>
+        <v>8.73065697299977E-4</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H17" si="4">(2*$B2+NORMSINV((100+99.8)/200)^2+NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B2*(1-$D2/$K2)))/2/($C2+NORMSINV((100+99.8)/200)^2)*$K2</f>
+        <v>0.10455445283705821</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -557,20 +566,25 @@
         <f t="shared" si="2"/>
         <v>0.11175046923191911</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
+      <c r="G3" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3865320725997183E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16458852282596442</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -592,20 +606,25 @@
         <f t="shared" si="2"/>
         <v>0.28882916559315885</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10519162066711432</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.3471109417008601</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -627,20 +646,25 @@
         <f t="shared" si="2"/>
         <v>0.73635751756902468</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49549465740704313</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.77835406140896968</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -662,20 +686,25 @@
         <f t="shared" si="2"/>
         <v>0.80536400736149094</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7869924108419063</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.80930614125896261</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -697,20 +726,25 @@
         <f t="shared" si="2"/>
         <v>1.0287644578977231E-3</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0269040118442213E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0291812992698397E-3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -732,20 +766,25 @@
         <f t="shared" si="2"/>
         <v>7.8339566813836331E-2</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>5.647101964624248E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>8.4184141852701344E-2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -767,20 +806,25 @@
         <f t="shared" si="2"/>
         <v>0.30440389662818057</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>24</v>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26583995768074953</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.31344754492799848</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -802,20 +846,25 @@
         <f t="shared" si="2"/>
         <v>5.4486196178705297</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>8.7306569729997702E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>10.455445283705821</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -837,20 +886,25 @@
         <f t="shared" si="2"/>
         <v>11.175046923191911</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3865320725997183</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>16.458852282596443</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -872,20 +926,25 @@
         <f t="shared" si="2"/>
         <v>28.882916559315884</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>10.519162066711433</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>34.711094170086007</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -907,20 +966,25 @@
         <f t="shared" si="2"/>
         <v>73.635751756902465</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>49.549465740704314</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>77.835406140896964</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -942,20 +1006,25 @@
         <f t="shared" si="2"/>
         <v>80.536400736149091</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>78.699241084190632</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>80.930614125896255</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -977,20 +1046,25 @@
         <f t="shared" si="2"/>
         <v>0.10287644578977231</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10269040118442213</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10291812992698397</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1012,20 +1086,25 @@
         <f t="shared" si="2"/>
         <v>7.8339566813836328</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6471019646242482</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>8.4184141852701337</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1047,633 +1126,69 @@
         <f t="shared" si="2"/>
         <v>30.440389662818056</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>26.583995768074953</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="4"/>
+        <v>31.344754492799847</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="2">
-        <f>(2*$B18+NORMSINV((100+99.8)/200)^2-NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B18*(1-$D18/$J18)))/2/($C18+NORMSINV((100+99.8)/200)^2)*$J18</f>
-        <v>8.73065697299977E-4</v>
-      </c>
-      <c r="F18" s="2">
-        <f>(2*$B18+NORMSINV((100+99.8)/200)^2+NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B18*(1-$D18/$J18)))/2/($C18+NORMSINV((100+99.8)/200)^2)*$J18</f>
-        <v>0.10455445283705821</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="E19" s="2">
-        <f>(2*$B19+NORMSINV((100+99.8)/200)^2-NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B19*(1-$D19/$J19)))/2/($C19+NORMSINV((100+99.8)/200)^2)*$J19</f>
-        <v>1.3865320725997183E-2</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" ref="F19:F33" si="3">(2*$B19+NORMSINV((100+99.8)/200)^2+NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B19*(1-$D19/$J19)))/2/($C19+NORMSINV((100+99.8)/200)^2)*$J19</f>
-        <v>0.16458852282596442</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20:E33" si="4">(2*$B20+NORMSINV((100+99.8)/200)^2-NORMSINV((100+99.8)/200)*SQRT(NORMSINV((100+99.8)/200)^2+4*$B20*(1-$D20/$J20)))/2/($C20+NORMSINV((100+99.8)/200)^2)*$J20</f>
-        <v>0.10519162066711432</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3471109417008601</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="4"/>
-        <v>0.49549465740704313</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="3"/>
-        <v>0.77835406140896968</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9856</v>
-      </c>
-      <c r="C22" s="2">
-        <v>12345</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.79837991089509919</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="4"/>
-        <v>0.7869924108419063</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="3"/>
-        <v>0.80930614125896261</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7776456</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7564336677</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0280420256339154E-3</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0269040118442213E-3</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0291812992698397E-3</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2">
-        <v>222</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3215</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9051321928460335E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="4"/>
-        <v>5.647101964624248E-2</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="3"/>
-        <v>8.4184141852701344E-2</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2">
-        <v>999</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3456</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2890625</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="4"/>
-        <v>0.26583995768074953</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.31344754492799848</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>100</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="4"/>
-        <v>8.7306569729997702E-2</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="3"/>
-        <v>10.455445283705821</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>100</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3865320725997183</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="3"/>
-        <v>16.458852282596443</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="4"/>
-        <v>10.519162066711433</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="3"/>
-        <v>34.711094170086007</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2">
-        <v>65</v>
-      </c>
-      <c r="C29" s="2">
-        <v>100</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="4"/>
-        <v>49.549465740704314</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="3"/>
-        <v>77.835406140896964</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2">
-        <v>9856</v>
-      </c>
-      <c r="C30" s="2">
-        <v>12345</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>79.837991089509913</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="4"/>
-        <v>78.699241084190632</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="3"/>
-        <v>80.930614125896255</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2">
-        <v>7776456</v>
-      </c>
-      <c r="C31" s="2">
-        <v>7564336677</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10280420256339154</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10269040118442213</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="3"/>
-        <v>0.10291812992698397</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2">
-        <v>222</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3215</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9051321928460334</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="4"/>
-        <v>5.6471019646242482</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="3"/>
-        <v>8.4184141852701337</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2">
-        <v>999</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3456</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>28.90625</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="4"/>
-        <v>26.583995768074953</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="3"/>
-        <v>31.344754492799847</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="2">
-        <v>100</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
     </row>
@@ -1688,7 +1203,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -1734,27 +1249,27 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A2,testdata_Prop!B$2:B$33)</f>
-        <v>4</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A2,testdata_Prop!B$2:B$17)</f>
+        <v>2</v>
       </c>
       <c r="C2">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A2,testdata_Prop!C$2:C$33)</f>
-        <v>400</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A2,testdata_Prop!C$2:C$17)</f>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>0.01</v>
       </c>
       <c r="E2">
-        <v>3.8954837949909914E-3</v>
+        <v>2.746658133544438E-3</v>
       </c>
       <c r="F2">
-        <v>2.5426564652619579E-2</v>
+        <v>3.5721761716176796E-2</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -1768,27 +1283,27 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A3,testdata_Prop!B$2:B$33)</f>
-        <v>20</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A3,testdata_Prop!B$2:B$17)</f>
+        <v>10</v>
       </c>
       <c r="C3">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A3,testdata_Prop!C$2:C$33)</f>
-        <v>400</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A3,testdata_Prop!C$2:C$17)</f>
+        <v>200</v>
       </c>
       <c r="D3">
         <v>0.05</v>
       </c>
       <c r="E3">
-        <v>3.2597429837147258E-2</v>
+        <v>2.7382645600763925E-2</v>
       </c>
       <c r="F3">
-        <v>7.5963635063719587E-2</v>
+        <v>8.9578148138775973E-2</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -1802,27 +1317,27 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A4,testdata_Prop!B$2:B$33)</f>
-        <v>80</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A4,testdata_Prop!B$2:B$17)</f>
+        <v>40</v>
       </c>
       <c r="C4">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A4,testdata_Prop!C$2:C$33)</f>
-        <v>400</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A4,testdata_Prop!C$2:C$17)</f>
+        <v>200</v>
       </c>
       <c r="D4">
         <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.16373705973387687</v>
+        <v>0.15045200926098115</v>
       </c>
       <c r="F4">
-        <v>0.24197031686670104</v>
+        <v>0.26085518656537882</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -1836,27 +1351,27 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A5,testdata_Prop!B$2:B$33)</f>
-        <v>260</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A5,testdata_Prop!B$2:B$17)</f>
+        <v>130</v>
       </c>
       <c r="C5">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A5,testdata_Prop!C$2:C$33)</f>
-        <v>400</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A5,testdata_Prop!C$2:C$17)</f>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>0.65</v>
       </c>
       <c r="E5">
-        <v>0.60203196070747378</v>
+        <v>0.58163464336040083</v>
       </c>
       <c r="F5">
-        <v>0.69511435099223728</v>
+        <v>0.71271175872641923</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
@@ -1870,27 +1385,27 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A6,testdata_Prop!B$2:B$33)</f>
-        <v>39424</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A6,testdata_Prop!B$2:B$17)</f>
+        <v>19712</v>
       </c>
       <c r="C6">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A6,testdata_Prop!C$2:C$33)</f>
-        <v>49380</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A6,testdata_Prop!C$2:C$17)</f>
+        <v>24690</v>
       </c>
       <c r="D6">
         <v>0.79837991089509919</v>
       </c>
       <c r="E6">
-        <v>0.79481805800067218</v>
+        <v>0.79332918455413748</v>
       </c>
       <c r="F6">
-        <v>0.80189534317473543</v>
+        <v>0.80333780322782966</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -1904,27 +1419,27 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A7,testdata_Prop!B$2:B$33)</f>
-        <v>31105824</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A7,testdata_Prop!B$2:B$17)</f>
+        <v>15552912</v>
       </c>
       <c r="C7">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A7,testdata_Prop!C$2:C$33)</f>
-        <v>30257346708</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A7,testdata_Prop!C$2:C$17)</f>
+        <v>15128673354</v>
       </c>
       <c r="D7">
         <v>1.0280420256339154E-3</v>
       </c>
       <c r="E7">
-        <v>1.0276809995663644E-3</v>
+        <v>1.0275314947741198E-3</v>
       </c>
       <c r="F7">
-        <v>1.0284031783999669E-3</v>
+        <v>1.0285528098907119E-3</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -1938,27 +1453,27 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A8,testdata_Prop!B$2:B$33)</f>
-        <v>888</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A8,testdata_Prop!B$2:B$17)</f>
+        <v>444</v>
       </c>
       <c r="C8">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A8,testdata_Prop!C$2:C$33)</f>
-        <v>12860</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A8,testdata_Prop!C$2:C$17)</f>
+        <v>6430</v>
       </c>
       <c r="D8">
         <v>6.9051321928460335E-2</v>
       </c>
       <c r="E8">
-        <v>6.4796737148613115E-2</v>
+        <v>6.3107995762980915E-2</v>
       </c>
       <c r="F8">
-        <v>7.3563290415335325E-2</v>
+        <v>7.5509261831701299E-2</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -1972,27 +1487,27 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A9,testdata_Prop!B$2:B$33)</f>
-        <v>3996</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A9,testdata_Prop!B$2:B$17)</f>
+        <v>1998</v>
       </c>
       <c r="C9">
-        <f>SUMIF(testdata_Prop!$A$2:$A$33,testdata_Prop_g!$A9,testdata_Prop!C$2:C$33)</f>
-        <v>13824</v>
+        <f>SUMIF(testdata_Prop!$A$2:$A$17,testdata_Prop_g!$A9,testdata_Prop!C$2:C$17)</f>
+        <v>6912</v>
       </c>
       <c r="D9">
         <v>0.2890625</v>
       </c>
       <c r="E9">
-        <v>0.28156503717401421</v>
+        <v>0.27849494363237037</v>
       </c>
       <c r="F9">
-        <v>0.29667716227788915</v>
+        <v>0.29986439017207411</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -2003,16 +1518,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>15</v>
@@ -2023,7 +1538,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2032,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -2043,13 +1558,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
